--- a/Documents/Data/Fiction/category-fiction.xlsx
+++ b/Documents/Data/Fiction/category-fiction.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\LibraryManager\BooksLibraryManagement\Documents\Data\Fiction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="19320" windowHeight="8520"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Author's Name</t>
   </si>
@@ -118,16 +123,92 @@
   </si>
   <si>
     <t>A riveting novel by MWA Grand Master Award winner Max Allan Collins. In Eastern Europe four CIA agents are dead--geopolitical pawns caught in border dispute cross fire. Why were they there? Who sent them? Not even the President knows. Back in Washington, the Secretary of the Interior dies from an apparent allergic shock. </t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>TITTLE</t>
+  </si>
+  <si>
+    <t>ISBN13</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>The Girl on the Train</t>
+  </si>
+  <si>
+    <t>The Sellout</t>
+  </si>
+  <si>
+    <t>The Tales of Beedle the Bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DanTDM: Trayaurus and the Enchanted Crystal
+</t>
+  </si>
+  <si>
+    <t>Night School</t>
+  </si>
+  <si>
+    <t>Harry Potter and the Philosopher's Stone</t>
+  </si>
+  <si>
+    <t>The Agent</t>
+  </si>
+  <si>
+    <t>The Last Paradise</t>
+  </si>
+  <si>
+    <t>A Criminal Defense</t>
+  </si>
+  <si>
+    <t>Executive Order</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0072"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -153,11 +234,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -167,6 +263,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -215,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -248,9 +347,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,6 +399,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -459,239 +592,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.625" customWidth="1"/>
-    <col min="2" max="2" width="30.875" customWidth="1"/>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="20.25" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="43.875" customWidth="1"/>
+    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.28515625" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
+    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="9">
+        <v>9780552779777</v>
+      </c>
+      <c r="G2" s="6">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1">
+      <c r="I2" s="4">
         <v>42495</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="9">
+        <v>9781786070159</v>
+      </c>
+      <c r="G3" s="6">
+        <v>12.66</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
+      <c r="I3" s="4">
         <v>42678</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9780747599876</v>
+      </c>
+      <c r="G4" s="6">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="1">
+      <c r="I4" s="4">
         <v>39784</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9781409168393</v>
+      </c>
+      <c r="G5" s="6">
+        <v>17.13</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="1">
+      <c r="I5" s="4">
         <v>42663</v>
       </c>
-      <c r="F5" t="s">
+      <c r="J5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9">
+        <v>9780593073919</v>
+      </c>
+      <c r="G6" s="6">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1">
+      <c r="I6" s="4">
         <v>42705</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="9">
+        <v>9781408845646</v>
+      </c>
+      <c r="G7" s="6">
+        <v>41.2</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="1">
+      <c r="I7" s="4">
         <v>42283</v>
       </c>
-      <c r="F7" t="s">
+      <c r="J7" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="E8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="9">
+        <v>9781477818022</v>
+      </c>
+      <c r="G8" s="6">
+        <v>13.82</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1">
+      <c r="I8" s="4">
         <v>42831</v>
       </c>
-      <c r="F8" t="s">
+      <c r="J8" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="9">
+        <v>9781503941885</v>
+      </c>
+      <c r="G9" s="6">
+        <v>14.34</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="1">
+      <c r="I9" s="4">
         <v>42826</v>
       </c>
-      <c r="F9" t="s">
+      <c r="J9" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="E10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="9">
+        <v>9781503943421</v>
+      </c>
+      <c r="G10" s="6">
+        <v>13.46</v>
+      </c>
+      <c r="H10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1">
+      <c r="I10" s="4">
         <v>42826</v>
       </c>
-      <c r="F10" t="s">
+      <c r="J10" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="9">
+        <v>9781477819432</v>
+      </c>
+      <c r="G11" s="6">
+        <v>12.79</v>
+      </c>
+      <c r="H11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E11" s="1">
+      <c r="I11" s="4">
         <v>42836</v>
       </c>
-      <c r="F11" t="s">
+      <c r="J11" s="3" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Documents/Data/Fiction/category-fiction.xlsx
+++ b/Documents/Data/Fiction/category-fiction.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\study\github\LibraryManager\BooksLibraryManagement\Documents\Data\Fiction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parakoda\Documents\Visual Studio 2017\Projects\LibraryManagement\Documents\Data\Fiction\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -173,44 +173,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="12"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0072"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="163"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -234,26 +211,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,371 +571,373 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="15.7109375" customWidth="1"/>
-    <col min="10" max="10" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="255.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    <row r="2" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5">
         <v>9780552779777</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>9.5399999999999991</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <v>42495</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+    <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5">
         <v>9781786070159</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>12.66</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>42678</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5">
         <v>9780747599876</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>8.5500000000000007</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="3">
         <v>39784</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+    <row r="5" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5">
         <v>9781409168393</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>17.13</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="3">
         <v>42663</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+    <row r="6" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
         <v>9780593073919</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>17.600000000000001</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>42705</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="5">
         <v>9781408845646</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>41.2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="3">
         <v>42283</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+    <row r="8" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="5">
         <v>9781477818022</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>13.82</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>42831</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+    <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
         <v>9781503941885</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>14.34</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="3">
         <v>42826</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5">
         <v>9781503943421</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>13.46</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="3">
         <v>42826</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="5">
         <v>9781477819432</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>12.79</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="3">
         <v>42836</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -975,7 +953,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -987,7 +965,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
